--- a/inst/results/data_contam/metals/recent_trends_metals_µg_ww.xlsx
+++ b/inst/results/data_contam/metals/recent_trends_metals_µg_ww.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cuivre</t>
+          <t>Copper</t>
         </is>
       </c>
       <c r="C3">
@@ -468,14 +468,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mercure</t>
+          <t>Lead</t>
         </is>
       </c>
       <c r="C4">
-        <v>-0.1982062417930229</v>
+        <v>0.3821428571428571</v>
       </c>
       <c r="D4">
-        <v>0.4788663786637513</v>
+        <v>0.1606519299640411</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="F4">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G4">
-        <v>0.017</v>
+        <v>0.417</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5">
@@ -500,14 +500,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Plomb</t>
+          <t>Mercury</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.3821428571428571</v>
+        <v>-0.1982062417930229</v>
       </c>
       <c r="D5">
-        <v>0.1606519299640411</v>
+        <v>0.4788663786637513</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="F5">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G5">
-        <v>0.417</v>
+        <v>0.017</v>
       </c>
       <c r="H5">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -564,7 +564,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cuivre</t>
+          <t>Copper</t>
         </is>
       </c>
       <c r="C7">
@@ -593,28 +593,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mercure</t>
+          <t>Lead</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.01577256784261706</v>
+        <v>-0.6321269211700545</v>
       </c>
       <c r="D8">
-        <v>0.9340709733948784</v>
+        <v>0.001212216103966395</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>↓</t>
         </is>
       </c>
       <c r="F8">
         <v>2024</v>
       </c>
       <c r="G8">
-        <v>0.029</v>
+        <v>0.216</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9">
@@ -625,28 +625,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Plomb</t>
+          <t>Mercury</t>
         </is>
       </c>
       <c r="C9">
-        <v>-0.6321269211700545</v>
+        <v>0.01577256784261706</v>
       </c>
       <c r="D9">
-        <v>0.001212216103966395</v>
+        <v>0.9340709733948784</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>↓</t>
+          <t>→</t>
         </is>
       </c>
       <c r="F9">
         <v>2024</v>
       </c>
       <c r="G9">
-        <v>0.216</v>
+        <v>0.029</v>
       </c>
       <c r="H9">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -689,7 +689,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cuivre</t>
+          <t>Copper</t>
         </is>
       </c>
       <c r="C11">
@@ -718,14 +718,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mercure</t>
+          <t>Lead</t>
         </is>
       </c>
       <c r="C12">
-        <v>-0.1097966354784204</v>
+        <v>-0.4796482550418079</v>
       </c>
       <c r="D12">
-        <v>0.6856331238400547</v>
+        <v>0.08263542281872624</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -736,10 +736,10 @@
         <v>2024</v>
       </c>
       <c r="G12">
-        <v>0.039</v>
+        <v>0.415</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13">
@@ -750,14 +750,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Plomb</t>
+          <t>Mercury</t>
         </is>
       </c>
       <c r="C13">
-        <v>-0.4796482550418079</v>
+        <v>-0.1097966354784204</v>
       </c>
       <c r="D13">
-        <v>0.08263542281872624</v>
+        <v>0.6856331238400547</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         <v>2024</v>
       </c>
       <c r="G13">
-        <v>0.415</v>
+        <v>0.039</v>
       </c>
       <c r="H13">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
